--- a/ExcelLevels/currentLevel.xlsx
+++ b/ExcelLevels/currentLevel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="0" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="TileGraphics" sheetId="6" r:id="rId1"/>
@@ -21,10 +21,11 @@
   </sheets>
   <definedNames>
     <definedName name="contentEnums">BoardEnums!$B$2:$B$7</definedName>
-    <definedName name="entityEnums">BoardEnums!$E$2:$E$10</definedName>
-    <definedName name="graphicEnums">BoardEnums!$A$2:$A$28</definedName>
+    <definedName name="entityEnums">BoardEnums!$E$2:$E$5</definedName>
+    <definedName name="graphicEnums">BoardEnums!$A$2:$A$10</definedName>
+    <definedName name="triggerEnums">BoardEnums!$C$2:$C$6</definedName>
     <definedName name="triggerStateEnums">BoardEnums!$C$2:$C$7</definedName>
-    <definedName name="triggerTypeEnums">BoardEnums!$D$2:$D$10</definedName>
+    <definedName name="triggerTypeEnums">BoardEnums!$D$2:$D$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="27">
   <si>
     <t>Graphic Enums</t>
   </si>
@@ -116,82 +117,7 @@
     <t>bearTrap</t>
   </si>
   <si>
-    <t>jump</t>
-  </si>
-  <si>
-    <t>cave_rock </t>
-  </si>
-  <si>
-    <t>cave_rockLight </t>
-  </si>
-  <si>
-    <t>cave_rockDark </t>
-  </si>
-  <si>
-    <t>cave_rockMossy </t>
-  </si>
-  <si>
-    <t>cave_rockWatery </t>
-  </si>
-  <si>
-    <t>cave_rockWaterPuddle </t>
-  </si>
-  <si>
-    <t>cave_rockBloody </t>
-  </si>
-  <si>
-    <t>cave_rockBloodPuddle </t>
-  </si>
-  <si>
-    <t>cave_rockLava </t>
-  </si>
-  <si>
-    <t>cave_sandstone </t>
-  </si>
-  <si>
-    <t>cave_sandstoneMossy </t>
-  </si>
-  <si>
-    <t>cave_sandstoneWatery </t>
-  </si>
-  <si>
-    <t>cave_lava</t>
-  </si>
-  <si>
-    <t>cave_rockHole </t>
-  </si>
-  <si>
-    <t>cave_rockBoulder</t>
-  </si>
-  <si>
-    <t>crawler</t>
-  </si>
-  <si>
-    <t>easterEgg</t>
-  </si>
-  <si>
-    <t>finalBoss</t>
-  </si>
-  <si>
-    <t>skeletonGrey</t>
-  </si>
-  <si>
-    <t>skeletonBlueRed</t>
-  </si>
-  <si>
-    <t>spikes</t>
-  </si>
-  <si>
-    <t>slowing</t>
-  </si>
-  <si>
-    <t>teleporter</t>
-  </si>
-  <si>
-    <t>bomb</t>
-  </si>
-  <si>
-    <t>bearTrapCursed</t>
+    <t>wispWhiteblue</t>
   </si>
 </sst>
 </file>
@@ -537,7 +463,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O2" sqref="A2:O11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,552 +473,552 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1036,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,10 +1105,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -1212,7 +1138,7 @@
         <v>4</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>4</v>
@@ -1300,10 +1226,10 @@
         <v>4</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>4</v>
@@ -1435,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>4</v>
@@ -1444,10 +1370,10 @@
         <v>4</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>4</v>
@@ -1476,28 +1402,28 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>4</v>
@@ -1541,7 +1467,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>4</v>
@@ -1553,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>4</v>
@@ -1683,7 +1609,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:P11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1658,7 @@
         <v>4</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
@@ -1746,7 +1672,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1808,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
@@ -1861,7 +1787,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>4</v>
@@ -1905,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>4</v>
@@ -1917,7 +1843,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>4</v>
@@ -1926,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>4</v>
@@ -1961,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
@@ -1999,7 +1925,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2082,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>4</v>
@@ -2143,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -2167,7 +2093,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>4</v>
@@ -2253,7 +2179,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2402,7 +2328,7 @@
         <v>4</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>4</v>
@@ -2413,13 +2339,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -2463,7 +2389,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -2490,7 +2416,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>4</v>
@@ -2513,10 +2439,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -2528,7 +2454,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>4</v>
@@ -2537,7 +2463,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>4</v>
@@ -2563,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -2590,13 +2516,13 @@
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>4</v>
@@ -2613,7 +2539,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
@@ -2643,7 +2569,7 @@
         <v>4</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>4</v>
@@ -2663,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
@@ -2690,13 +2616,13 @@
         <v>4</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>4</v>
@@ -2731,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>4</v>
@@ -2811,7 +2737,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:P11">
-      <formula1>triggerStateEnums</formula1>
+      <formula1>triggerEnums</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2822,566 +2748,566 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K21:K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:P11">
-      <formula1>triggerStateEnums</formula1>
+      <formula1>triggerTypeEnums</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,17 +3318,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" customWidth="1"/>
@@ -3454,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -3470,11 +3396,8 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3487,12 +3410,6 @@
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3503,145 +3420,56 @@
       </c>
       <c r="C6" t="s">
         <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>31</v>
-      </c>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>39</v>
-      </c>
+    <row r="23" spans="6:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30" s="2"/>
     </row>
   </sheetData>
